--- a/Table/Datas/NPCData.xlsx
+++ b/Table/Datas/NPCData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unreal\ProjectPT\Table\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1161A652-0157-476A-9A4D-122031ABB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3F8508-44E1-4AF7-A63A-61A2BFC98256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1650" windowWidth="21600" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="2445" windowWidth="21600" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>!Field</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -56,6 +56,14 @@
   </si>
   <si>
     <t>Shop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InteractionValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -426,19 +434,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +456,11 @@
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -459,8 +470,11 @@
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -470,8 +484,11 @@
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -481,8 +498,11 @@
       <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1001</v>
       </c>
@@ -492,16 +512,21 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" s="3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
